--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -130,7 +130,7 @@
     <t>Nemendur</t>
   </si>
   <si>
-    <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)Heimahjúkrun HJÚ711G (landsbyggd)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+    <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)Heimahjúkrun HJÚ711G (landsbyggd)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
   </si>
   <si>
     <t>Heimahjúkrun HJÚ711G (landsbyggd)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
@@ -142,10 +142,10 @@
     <t>Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)</t>
   </si>
   <si>
-    <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-  </si>
-  <si>
-    <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)Heimahjúkrun HJÚ711G (landsbyggd)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)</t>
+    <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+  </si>
+  <si>
+    <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)Heimahjúkrun HJÚ711G (landsbyggd)Barnahjúkrun HJÚ715G (barna)Barnahjúkrun HJÚ715G (barna)</t>
   </si>
   <si>
     <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -631,22 +631,18 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -656,7 +652,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -668,20 +664,24 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -697,22 +697,18 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -734,18 +730,22 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -765,34 +765,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -804,13 +796,21 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -829,20 +829,20 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -872,14 +872,14 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -927,24 +927,24 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -967,12 +967,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -980,7 +980,11 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -989,12 +993,12 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -1023,22 +1027,18 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1048,7 +1048,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1059,19 +1059,23 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
@@ -1089,22 +1093,18 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1114,7 +1114,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1127,16 +1127,20 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
@@ -1157,11 +1161,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1185,16 +1185,20 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
@@ -1219,24 +1223,24 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1245,24 +1249,24 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
@@ -1285,24 +1289,24 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1310,21 +1314,25 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
@@ -1343,28 +1351,32 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1374,23 +1386,19 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
@@ -1413,12 +1421,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1427,19 +1435,15 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1448,10 +1452,14 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1473,30 +1481,34 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1505,24 +1517,20 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -1541,11 +1549,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1553,7 +1557,11 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1562,18 +1570,18 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1599,12 +1607,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1624,24 +1632,28 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
@@ -1661,19 +1673,23 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1684,16 +1700,20 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1713,29 +1733,29 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1744,26 +1764,26 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
@@ -1779,29 +1799,29 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1812,7 +1832,7 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -1820,14 +1840,14 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
@@ -1851,24 +1871,24 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -1881,21 +1901,21 @@
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
@@ -1911,34 +1931,34 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -1947,20 +1967,20 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
@@ -1987,16 +2007,8 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2008,8 +2020,16 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
@@ -2033,29 +2053,29 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -2063,17 +2083,21 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
@@ -2089,28 +2113,32 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2123,20 +2151,16 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
@@ -2159,12 +2183,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2191,23 +2215,23 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
@@ -2221,40 +2245,32 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2265,8 +2281,16 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -2289,24 +2313,32 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2315,24 +2347,20 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
@@ -2349,29 +2377,33 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2380,26 +2412,22 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
@@ -2417,16 +2445,20 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -2435,14 +2467,10 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2450,15 +2478,19 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -2481,25 +2513,29 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2520,11 +2556,7 @@
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
@@ -2545,16 +2577,20 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2563,7 +2599,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2574,26 +2610,22 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
@@ -2609,33 +2641,33 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2644,17 +2676,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -2675,23 +2707,23 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -2710,21 +2742,21 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
@@ -2741,33 +2773,33 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2776,22 +2808,22 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
@@ -2807,33 +2839,33 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2842,22 +2874,22 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
@@ -2873,18 +2905,18 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -2900,8 +2932,16 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2916,16 +2956,8 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
@@ -2939,22 +2971,26 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2984,11 +3020,7 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
@@ -3007,20 +3039,24 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -3030,10 +3066,14 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -3043,16 +3083,8 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -3073,22 +3105,26 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -3113,11 +3149,7 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
@@ -3139,37 +3171,41 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -3183,11 +3219,7 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
@@ -3211,27 +3243,35 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -3242,16 +3282,8 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
@@ -3269,22 +3301,26 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -3294,10 +3330,14 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3305,16 +3345,8 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -3335,19 +3367,23 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -3358,24 +3394,24 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -3397,18 +3433,26 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -3422,7 +3466,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3437,11 +3481,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
@@ -3461,28 +3501,40 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -3495,21 +3547,9 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
@@ -3527,21 +3567,21 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -3551,8 +3591,16 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3563,16 +3611,8 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
@@ -3593,28 +3633,40 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3624,16 +3676,8 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -3655,28 +3699,40 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3684,21 +3740,9 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -3719,21 +3763,25 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3741,10 +3789,14 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3757,16 +3809,8 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
@@ -3785,19 +3829,27 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -3805,10 +3857,14 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3816,26 +3872,14 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
@@ -3851,30 +3895,42 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3886,21 +3942,9 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
@@ -3919,22 +3963,26 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -3949,27 +3997,23 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
@@ -3985,27 +4029,27 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -4017,16 +4061,8 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr">
@@ -4034,8 +4070,16 @@
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
@@ -4051,12 +4095,12 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -4081,19 +4125,19 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
@@ -4113,31 +4157,27 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -4149,21 +4189,25 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
@@ -4177,15 +4221,15 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -4201,17 +4245,17 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE57" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -4237,19 +4281,19 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -4257,11 +4301,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -4270,24 +4310,28 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
@@ -4301,23 +4345,23 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -4332,24 +4376,28 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
@@ -4363,23 +4411,23 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -4394,18 +4442,18 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE60" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -4429,34 +4477,30 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -4466,18 +4510,26 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
@@ -4493,15 +4545,19 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -4510,11 +4566,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -4526,22 +4578,22 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
@@ -4559,15 +4611,19 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -4576,11 +4632,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4588,26 +4640,26 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
@@ -4623,57 +4675,57 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
@@ -4689,18 +4741,22 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -4708,11 +4764,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -4720,26 +4772,26 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
@@ -4757,25 +4809,21 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -4795,7 +4843,11 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC66" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -4821,23 +4873,23 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -4856,22 +4908,22 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
@@ -4889,20 +4941,20 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4910,16 +4962,8 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -4930,14 +4974,22 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
@@ -4955,32 +5007,28 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4990,16 +5038,20 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
@@ -5017,16 +5069,20 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -5034,11 +5090,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -5049,22 +5101,18 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
@@ -5083,31 +5131,27 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -5117,20 +5161,20 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
@@ -5147,23 +5191,23 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -5180,23 +5224,19 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
@@ -5215,31 +5255,27 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -5253,19 +5289,19 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF73" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
@@ -5281,32 +5317,28 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -5316,19 +5348,19 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
@@ -5345,43 +5377,31 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
@@ -5392,9 +5412,21 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
@@ -5413,18 +5445,18 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -5433,11 +5465,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -5450,20 +5478,24 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF76" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
@@ -5479,31 +5511,27 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -5516,20 +5544,24 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF77" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
@@ -5545,41 +5577,29 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
@@ -5589,9 +5609,21 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
@@ -5611,25 +5643,21 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -5646,18 +5674,22 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
@@ -5683,19 +5715,15 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -5712,18 +5740,22 @@
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
@@ -5743,20 +5775,20 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -5774,20 +5806,20 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr"/>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -637,12 +637,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -703,12 +703,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -769,12 +769,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -835,12 +835,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -901,12 +901,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -967,12 +967,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1099,12 +1099,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1289,12 +1289,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1355,12 +1355,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1421,12 +1421,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1487,12 +1487,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1607,12 +1607,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1673,12 +1673,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1739,12 +1739,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1805,12 +1805,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1871,12 +1871,12 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1937,12 +1937,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -2053,12 +2053,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2119,12 +2119,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2183,12 +2183,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2315,12 +2315,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2381,12 +2381,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2447,12 +2447,12 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2513,12 +2513,12 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2579,12 +2579,12 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2645,12 +2645,12 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2711,12 +2711,12 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2777,12 +2777,12 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2843,12 +2843,12 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2909,12 +2909,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2979,12 +2979,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3045,12 +3045,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3111,12 +3111,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3177,12 +3177,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3243,12 +3243,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3309,12 +3309,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3369,12 +3369,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3501,12 +3501,12 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3567,12 +3567,12 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3633,12 +3633,12 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3699,12 +3699,12 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3765,12 +3765,12 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3831,12 +3831,12 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3897,12 +3897,12 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3963,12 +3963,12 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4029,12 +4029,12 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -4095,12 +4095,12 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -4157,12 +4157,12 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -4281,12 +4281,12 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4347,12 +4347,12 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4413,12 +4413,12 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4479,12 +4479,12 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4545,12 +4545,12 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4611,12 +4611,12 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4677,12 +4677,12 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4743,12 +4743,12 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4809,12 +4809,12 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4881,12 +4881,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -4947,12 +4947,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -5007,12 +5007,12 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -5075,12 +5075,12 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -5137,12 +5137,12 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -5199,12 +5199,12 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -5323,12 +5323,12 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -5385,12 +5385,12 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -5451,12 +5451,12 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -5517,12 +5517,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -5583,12 +5583,12 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -5649,12 +5649,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -5715,12 +5715,12 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -5781,12 +5781,12 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -631,28 +631,40 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -662,24 +674,20 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
@@ -697,28 +705,40 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -728,24 +748,16 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -755,7 +767,11 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -763,28 +779,40 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -794,23 +822,19 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -829,28 +853,40 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -860,30 +896,26 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -895,28 +927,40 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -926,30 +970,26 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -961,28 +1001,40 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -992,23 +1044,15 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
@@ -1018,7 +1062,11 @@
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1027,28 +1075,40 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1059,22 +1119,10 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
@@ -1093,28 +1141,40 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1124,29 +1184,25 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
@@ -1159,9 +1215,17 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1172,39 +1236,39 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -1217,18 +1281,26 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1238,33 +1310,29 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
@@ -1274,7 +1342,11 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1283,18 +1355,26 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1304,38 +1384,34 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
@@ -1349,53 +1425,61 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1415,53 +1499,57 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1473,7 +1561,11 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1481,20 +1573,24 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1506,28 +1602,32 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1562,26 +1662,30 @@
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -1601,31 +1705,43 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1634,20 +1750,16 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1667,29 +1779,33 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1700,20 +1816,16 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1723,7 +1835,11 @@
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
     </row>
@@ -1733,29 +1849,33 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1766,20 +1886,20 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -1799,29 +1919,33 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1832,7 +1956,7 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -1856,7 +1980,11 @@
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1865,29 +1993,33 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1898,7 +2030,7 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -1919,7 +2051,11 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
@@ -1931,34 +2067,34 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -1966,7 +2102,11 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -1984,7 +2124,11 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
@@ -2020,20 +2164,20 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
@@ -2047,34 +2191,34 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2082,15 +2226,19 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr"/>
@@ -2113,34 +2261,34 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -2148,15 +2296,19 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr"/>
@@ -2179,34 +2331,30 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2214,10 +2362,14 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -2225,7 +2377,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -2245,19 +2401,23 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2265,14 +2425,10 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2280,15 +2436,19 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
@@ -2311,29 +2471,29 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -2346,17 +2506,17 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
@@ -2377,34 +2537,34 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2419,10 +2579,14 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -2443,34 +2607,34 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2485,10 +2649,14 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
@@ -2509,34 +2677,34 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2546,7 +2714,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -2554,7 +2722,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
@@ -2567,7 +2739,11 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2575,34 +2751,34 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2612,7 +2788,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -2620,7 +2796,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -2641,34 +2821,34 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2678,7 +2858,7 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -2686,7 +2866,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -2707,26 +2891,22 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2744,7 +2924,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -2752,8 +2932,16 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
@@ -2773,26 +2961,22 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -2810,7 +2994,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -2818,7 +3002,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -2829,7 +3017,11 @@
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
     </row>
@@ -2839,26 +3031,22 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2876,16 +3064,24 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
@@ -2905,43 +3101,31 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2949,9 +3133,21 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
@@ -2973,51 +3169,55 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
@@ -3039,51 +3239,55 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -3095,7 +3299,11 @@
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3105,58 +3313,66 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
@@ -3171,51 +3387,55 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
@@ -3237,41 +3457,29 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -3280,8 +3488,16 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
@@ -3303,52 +3519,56 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
@@ -3358,7 +3578,11 @@
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AL43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -3369,52 +3593,56 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
@@ -3425,7 +3653,11 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3435,40 +3667,28 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -3476,11 +3696,31 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
@@ -3501,40 +3741,28 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -3544,9 +3772,21 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
@@ -3555,7 +3795,11 @@
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
     </row>
@@ -3567,40 +3811,28 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3608,11 +3840,27 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
@@ -3623,7 +3871,11 @@
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3633,40 +3885,28 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3674,11 +3914,31 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
@@ -3699,40 +3959,28 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3740,11 +3988,31 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
@@ -3765,40 +4033,32 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3809,8 +4069,16 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
@@ -3831,40 +4099,32 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3872,12 +4132,28 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
@@ -3897,40 +4173,32 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3938,12 +4206,24 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
@@ -3963,26 +4243,26 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -4000,20 +4280,20 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
@@ -4029,22 +4309,26 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -4058,28 +4342,32 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
@@ -4093,29 +4381,29 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -4128,20 +4416,20 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
@@ -4157,22 +4445,26 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -4186,28 +4478,32 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
@@ -4225,12 +4521,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -4244,28 +4540,36 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
@@ -4279,24 +4583,24 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -4310,28 +4614,36 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
@@ -4345,24 +4657,24 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -4376,28 +4688,36 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
@@ -4411,24 +4731,24 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -4442,28 +4762,36 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
@@ -4477,29 +4805,29 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -4508,28 +4836,36 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
@@ -4543,29 +4879,29 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4574,14 +4910,26 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -4589,11 +4937,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
@@ -4609,29 +4953,29 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4640,14 +4984,26 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -4655,11 +5011,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
@@ -4675,29 +5027,29 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -4706,14 +5058,22 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -4721,13 +5081,13 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
@@ -4741,29 +5101,29 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4772,14 +5132,26 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -4787,11 +5159,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
@@ -4807,29 +5175,29 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4838,14 +5206,22 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -4853,13 +5229,13 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
@@ -4873,20 +5249,16 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -4895,7 +5267,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4904,14 +5280,26 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -4919,11 +5307,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
@@ -4939,20 +5323,16 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -4961,7 +5341,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4970,7 +5354,11 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
@@ -4993,7 +5381,11 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
@@ -5005,24 +5397,20 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -5036,11 +5424,23 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr">
         <is>
@@ -5067,29 +5467,29 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -5098,22 +5498,34 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
@@ -5129,29 +5541,29 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -5160,22 +5572,30 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
@@ -5183,7 +5603,11 @@
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5191,29 +5615,29 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -5222,22 +5646,34 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
@@ -5253,29 +5689,29 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -5284,22 +5720,34 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD73" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
@@ -5315,29 +5763,29 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -5353,15 +5801,19 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD74" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
@@ -5377,30 +5829,30 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -5412,14 +5864,10 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -5427,7 +5875,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
@@ -5443,30 +5895,30 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -5474,28 +5926,36 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
@@ -5509,30 +5969,30 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -5540,28 +6000,36 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
@@ -5575,30 +6043,30 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -5606,28 +6074,36 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
@@ -5641,30 +6117,30 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -5672,28 +6148,36 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA79" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
@@ -5707,30 +6191,30 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -5738,28 +6222,36 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA80" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
@@ -5773,30 +6265,30 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
@@ -5807,28 +6299,32 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AJ81" t="inlineStr"/>
       <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -633,12 +633,12 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -676,12 +676,12 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -707,12 +707,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -748,30 +748,30 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -781,12 +781,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -855,12 +855,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -896,26 +896,26 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -929,12 +929,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -970,26 +970,26 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1003,12 +1003,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1044,29 +1044,29 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1077,12 +1077,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1143,12 +1143,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1184,25 +1184,25 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
@@ -1250,25 +1250,25 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -1283,12 +1283,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1324,29 +1324,29 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1357,12 +1357,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1427,12 +1427,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1470,12 +1470,12 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
@@ -1501,12 +1501,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1542,30 +1542,30 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1575,12 +1575,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1595,11 +1595,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -1618,18 +1614,18 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
@@ -1639,7 +1635,11 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1662,34 +1662,34 @@
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
@@ -1707,12 +1707,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1727,21 +1727,9 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1750,28 +1738,40 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1781,19 +1781,15 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
@@ -1827,19 +1823,23 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
+      <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
     </row>
@@ -1851,19 +1851,15 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
@@ -1886,24 +1882,28 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
@@ -1911,7 +1911,11 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1921,19 +1925,15 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
@@ -1946,7 +1946,11 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1954,37 +1958,37 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1995,12 +1999,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2028,34 +2032,34 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
@@ -2069,12 +2073,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2102,33 +2106,33 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
@@ -2152,8 +2156,16 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2168,16 +2180,8 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
@@ -2193,12 +2197,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2213,11 +2217,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -2226,19 +2226,15 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr"/>
@@ -2246,11 +2242,23 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -2263,12 +2271,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2283,11 +2291,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -2298,30 +2302,38 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
     </row>
@@ -2333,15 +2345,19 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
@@ -2362,14 +2378,10 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -2377,17 +2389,21 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
@@ -2403,12 +2419,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2423,11 +2439,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2436,32 +2448,40 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
     </row>
@@ -2473,12 +2493,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2494,11 +2514,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2506,21 +2522,25 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
@@ -2539,12 +2559,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2560,11 +2580,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2579,17 +2595,21 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
@@ -2599,7 +2619,11 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2609,12 +2633,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2630,11 +2654,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2642,26 +2662,34 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
@@ -2679,12 +2707,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2699,12 +2727,12 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2712,38 +2740,38 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2753,12 +2781,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2774,11 +2802,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2788,7 +2812,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -2796,23 +2820,31 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AL32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -2823,12 +2855,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2846,43 +2878,47 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AL33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -2893,12 +2929,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2922,34 +2958,38 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
@@ -2963,12 +3003,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2992,36 +3032,36 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
+      <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
     </row>
@@ -3033,12 +3073,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3064,34 +3104,38 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
     </row>
@@ -3109,12 +3153,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -3133,25 +3177,25 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
@@ -3175,12 +3219,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3198,14 +3242,10 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -3213,22 +3253,30 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AL38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3245,12 +3293,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3259,7 +3307,11 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3268,42 +3320,38 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3319,12 +3367,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3333,7 +3381,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -3342,14 +3394,10 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -3357,22 +3405,22 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
@@ -3393,12 +3441,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3418,32 +3466,36 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
@@ -3463,12 +3515,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3486,18 +3538,22 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
@@ -3525,12 +3581,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3539,7 +3595,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -3548,41 +3608,37 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -3599,12 +3655,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3613,7 +3669,11 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -3622,17 +3682,9 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -3645,19 +3697,23 @@
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3673,12 +3729,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -3698,36 +3754,36 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
@@ -3747,12 +3803,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3771,20 +3827,20 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr"/>
@@ -3795,12 +3851,12 @@
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr">
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
-      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -3817,12 +3873,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3832,7 +3888,11 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3840,42 +3900,38 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr">
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3891,12 +3947,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3906,7 +3962,11 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3914,36 +3974,28 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
@@ -3965,12 +4017,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3980,7 +4032,11 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3988,36 +4044,32 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
@@ -4031,20 +4083,16 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -4066,19 +4114,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
@@ -4097,20 +4145,16 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -4137,27 +4181,31 @@
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr">
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
@@ -4179,12 +4227,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -4208,24 +4256,24 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
@@ -4241,20 +4289,16 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -4278,18 +4322,18 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
@@ -4307,20 +4351,16 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -4352,18 +4392,22 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
@@ -4385,12 +4429,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -4443,20 +4487,16 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -4480,34 +4520,34 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
     </row>
@@ -4542,38 +4582,38 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
     </row>
@@ -4587,12 +4627,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4614,34 +4654,26 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
@@ -4649,7 +4681,11 @@
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4661,12 +4697,12 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4690,40 +4726,40 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4735,12 +4771,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -4762,36 +4798,36 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
@@ -4805,16 +4841,20 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -4838,31 +4878,27 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
@@ -4883,12 +4919,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -4910,38 +4946,38 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB62" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
@@ -4957,12 +4993,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4984,35 +5020,31 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
@@ -5027,16 +5059,20 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -5058,17 +5094,13 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -5076,12 +5108,12 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr">
         <is>
@@ -5105,12 +5137,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -5124,7 +5156,11 @@
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -5132,36 +5168,28 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
@@ -5179,12 +5207,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -5198,7 +5226,11 @@
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -5206,30 +5238,26 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr">
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
@@ -5253,12 +5281,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -5280,33 +5308,25 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
@@ -5314,7 +5334,11 @@
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AL67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -5323,16 +5347,20 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -5354,20 +5382,16 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC68" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -5375,17 +5399,17 @@
       </c>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
@@ -5397,16 +5421,20 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -5424,34 +5452,30 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
         <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
@@ -5473,12 +5497,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -5498,11 +5522,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
@@ -5513,7 +5533,7 @@
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -5523,14 +5543,18 @@
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
-      <c r="AI70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
@@ -5543,16 +5567,20 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -5572,42 +5600,38 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5621,12 +5645,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -5646,36 +5670,36 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
@@ -5695,12 +5719,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -5720,36 +5744,36 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr">
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD73" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
@@ -5769,12 +5793,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -5795,25 +5819,25 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
@@ -5831,16 +5855,20 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -5865,11 +5893,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -5901,12 +5925,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -5926,37 +5950,33 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AG76" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
@@ -5969,18 +5989,22 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -6000,40 +6024,36 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF77" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
     </row>
@@ -6049,12 +6069,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -6085,25 +6105,25 @@
         </is>
       </c>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF78" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
@@ -6123,12 +6143,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -6148,36 +6168,32 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF79" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
@@ -6197,12 +6213,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -6222,40 +6238,40 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF80" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
     </row>
@@ -6271,12 +6287,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -6300,33 +6316,33 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF81" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr">
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
     </row>
   </sheetData>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -633,12 +633,12 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -707,12 +707,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -781,12 +781,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -855,12 +855,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -929,12 +929,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1003,12 +1003,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1077,12 +1077,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1143,12 +1143,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1283,12 +1283,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1357,12 +1357,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1427,12 +1427,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1501,12 +1501,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1575,12 +1575,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1707,12 +1707,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1781,12 +1781,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1851,12 +1851,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1925,12 +1925,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1999,12 +1999,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2073,12 +2073,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2197,12 +2197,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2271,12 +2271,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2345,12 +2345,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2419,12 +2419,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2493,12 +2493,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2559,12 +2559,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2633,12 +2633,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2707,12 +2707,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2781,12 +2781,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2855,12 +2855,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2929,12 +2929,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -3003,12 +3003,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3153,12 +3153,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -3219,12 +3219,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3293,12 +3293,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3367,12 +3367,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3441,12 +3441,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3515,12 +3515,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3581,12 +3581,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3655,12 +3655,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3729,12 +3729,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -3803,12 +3803,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3850,13 +3850,13 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -3873,12 +3873,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3947,12 +3947,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -4017,12 +4017,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -4087,12 +4087,12 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -4149,12 +4149,12 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -4227,12 +4227,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -4293,12 +4293,12 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -4355,12 +4355,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -4429,12 +4429,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -4491,12 +4491,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -4627,12 +4627,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4697,12 +4697,12 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4771,12 +4771,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -4849,12 +4849,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -4919,12 +4919,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -4993,12 +4993,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -5067,12 +5067,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -5137,12 +5137,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -5207,12 +5207,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -5281,12 +5281,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -5355,12 +5355,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -5575,12 +5575,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -5645,12 +5645,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -5719,12 +5719,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -5793,12 +5793,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -5863,12 +5863,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -5925,12 +5925,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -5999,12 +5999,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -6069,12 +6069,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -6143,12 +6143,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -6213,12 +6213,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -6287,12 +6287,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -6336,13 +6336,13 @@
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
     </row>
   </sheetData>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -633,14 +633,10 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -662,11 +658,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -679,18 +671,34 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
@@ -707,14 +715,10 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -736,11 +740,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -748,24 +748,32 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
@@ -781,14 +789,10 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -810,11 +814,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -822,23 +822,35 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
@@ -855,14 +867,10 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -884,11 +892,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -900,20 +904,28 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
@@ -929,14 +941,10 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -958,11 +966,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -973,19 +977,27 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr"/>
@@ -1003,14 +1015,10 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1032,11 +1040,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1044,24 +1048,32 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
@@ -1077,14 +1089,10 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1106,11 +1114,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1143,14 +1147,10 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1172,11 +1172,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1184,24 +1180,32 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
@@ -1239,11 +1243,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1254,20 +1254,28 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
@@ -1283,14 +1291,10 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1313,35 +1317,39 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
@@ -1357,14 +1365,10 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1387,11 +1391,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1406,7 +1406,11 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AF12" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
@@ -1427,14 +1431,10 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1457,11 +1457,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1470,19 +1466,35 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
@@ -1501,14 +1513,10 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1531,35 +1539,39 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
@@ -1575,14 +1587,10 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1595,17 +1603,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1614,32 +1622,44 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1662,7 +1682,11 @@
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1675,23 +1699,15 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
@@ -1707,14 +1723,10 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1727,8 +1739,16 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1736,42 +1756,46 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AL17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1781,15 +1805,15 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
@@ -1815,30 +1839,26 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
+      <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -1851,15 +1871,15 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
@@ -1882,40 +1902,48 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AL19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1925,15 +1953,15 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
@@ -1946,11 +1974,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1958,32 +1982,36 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
@@ -1999,19 +2027,11 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
@@ -2024,7 +2044,11 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2032,32 +2056,36 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
@@ -2076,11 +2104,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -2106,32 +2130,36 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr"/>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
@@ -2156,16 +2184,8 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2174,7 +2194,11 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
@@ -2200,11 +2224,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -2226,39 +2246,47 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
+      <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -2271,14 +2299,10 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -2302,38 +2326,50 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Z25" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
     </row>
@@ -2345,19 +2381,11 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
@@ -2381,29 +2409,45 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
@@ -2422,11 +2466,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -2448,40 +2488,52 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
     </row>
@@ -2496,11 +2548,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -2525,22 +2573,18 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
@@ -2559,14 +2603,10 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -2588,42 +2628,50 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2633,14 +2681,10 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -2662,7 +2706,11 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -2670,28 +2718,36 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
@@ -2707,15 +2763,15 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
@@ -2727,11 +2783,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2740,30 +2792,34 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr"/>
@@ -2784,11 +2840,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -2812,7 +2864,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -2820,13 +2872,21 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -2834,17 +2894,21 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -2858,11 +2922,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2876,16 +2936,8 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -2893,32 +2945,52 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -2929,14 +3001,10 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2958,38 +3026,46 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
@@ -3003,14 +3079,10 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -3033,11 +3105,15 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3047,20 +3123,16 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
+      <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
@@ -3073,14 +3145,10 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -3104,38 +3172,50 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
     </row>
@@ -3153,14 +3233,10 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3183,19 +3259,15 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
@@ -3219,14 +3291,10 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3243,40 +3311,52 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3293,14 +3373,10 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -3322,16 +3398,20 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr"/>
@@ -3340,12 +3420,12 @@
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
@@ -3367,14 +3447,10 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3395,31 +3471,35 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
@@ -3441,14 +3521,10 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3469,33 +3545,41 @@
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
@@ -3515,14 +3599,10 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3538,27 +3618,23 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
@@ -3581,14 +3657,10 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3608,32 +3680,36 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
@@ -3655,26 +3731,22 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3683,25 +3755,29 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
@@ -3729,14 +3805,10 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3754,7 +3826,7 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -3763,27 +3835,39 @@
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
@@ -3803,14 +3887,10 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3826,37 +3906,41 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -3873,14 +3957,10 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3902,24 +3982,28 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr">
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
+      <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
@@ -3947,14 +4031,10 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3962,11 +4042,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -3974,12 +4050,28 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AC48" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -3987,13 +4079,17 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr"/>
@@ -4017,14 +4113,10 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -4044,32 +4136,36 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
@@ -4087,14 +4183,10 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -4114,21 +4206,21 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
@@ -4149,14 +4241,10 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -4178,32 +4266,44 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr"/>
@@ -4227,14 +4327,10 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -4254,28 +4350,24 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
@@ -4293,14 +4385,10 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -4320,20 +4408,20 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
@@ -4355,14 +4443,10 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -4384,34 +4468,46 @@
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
@@ -4432,11 +4528,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -4462,18 +4554,14 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
@@ -4494,11 +4582,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -4525,29 +4609,41 @@
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
     </row>
@@ -4557,7 +4653,11 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -4582,38 +4682,46 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
     </row>
@@ -4627,14 +4735,10 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -4654,38 +4758,54 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AL58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4697,14 +4817,10 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -4726,16 +4842,36 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AE59" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -4743,23 +4879,15 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AL59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4774,11 +4902,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -4799,14 +4923,10 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -4819,13 +4939,29 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr"/>
@@ -4841,22 +4977,14 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -4878,30 +5006,46 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
@@ -4919,14 +5063,10 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -4947,10 +5087,14 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr"/>
@@ -4961,23 +5105,31 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
@@ -4993,14 +5145,10 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5021,31 +5169,47 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
@@ -5059,22 +5223,14 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -5086,7 +5242,11 @@
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -5096,7 +5256,11 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr">
         <is>
@@ -5105,15 +5269,15 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr">
         <is>
@@ -5133,18 +5297,18 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
           <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -5156,11 +5320,7 @@
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -5168,28 +5328,36 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr">
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
@@ -5210,11 +5378,7 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -5247,7 +5411,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -5255,10 +5419,14 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr">
         <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
@@ -5281,14 +5449,10 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -5316,29 +5480,45 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -5355,14 +5535,10 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -5383,31 +5559,35 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
@@ -5421,22 +5601,14 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -5452,31 +5624,47 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC69" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
@@ -5497,14 +5685,10 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -5522,39 +5706,51 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
-      <c r="AI70" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
@@ -5565,24 +5761,20 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -5601,31 +5793,35 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr">
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
+      <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
@@ -5645,14 +5841,10 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -5670,36 +5862,48 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF72" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
@@ -5719,14 +5923,10 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -5744,13 +5944,17 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -5758,22 +5962,26 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
-      <c r="AF73" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
@@ -5787,20 +5995,20 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -5819,23 +6027,15 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
@@ -5855,22 +6055,14 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -5891,19 +6083,19 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD75" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
@@ -5925,14 +6117,10 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -5950,11 +6138,27 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB76" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -5962,21 +6166,21 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AF76" t="inlineStr">
         <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="AG76" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
@@ -5989,24 +6193,16 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -6025,35 +6221,51 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
     </row>
@@ -6069,14 +6281,10 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -6094,17 +6302,17 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z78" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -6112,18 +6320,30 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
@@ -6143,14 +6363,10 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -6168,17 +6384,25 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr"/>
@@ -6189,11 +6413,19 @@
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
@@ -6213,14 +6445,10 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -6238,17 +6466,25 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -6257,21 +6493,25 @@
         </is>
       </c>
       <c r="AC80" t="inlineStr"/>
-      <c r="AD80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AE80" t="inlineStr">
         <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="AF80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
+      <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
     </row>
@@ -6287,14 +6527,10 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -6314,35 +6550,39 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
     </row>
   </sheetData>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -633,10 +633,14 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -658,7 +662,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -715,10 +723,14 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -740,7 +752,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -792,7 +808,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -814,7 +834,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -870,7 +894,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (landsbyggd)</t>
@@ -892,7 +920,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -941,10 +973,14 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -966,7 +1002,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1015,10 +1055,14 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1040,7 +1084,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1089,10 +1137,14 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1114,7 +1166,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1147,10 +1203,14 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1172,7 +1232,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1243,7 +1307,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1294,7 +1362,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1317,7 +1389,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1368,7 +1444,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1391,7 +1471,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1431,10 +1515,14 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1457,7 +1545,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1513,10 +1605,14 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1539,7 +1635,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1587,10 +1687,14 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1613,7 +1717,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -1687,7 +1795,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1723,10 +1835,14 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
@@ -1749,7 +1865,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1805,10 +1925,14 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -1839,7 +1963,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
@@ -1871,10 +1999,14 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -1905,7 +2037,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
@@ -1953,10 +2089,14 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -1989,7 +2129,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2027,10 +2167,14 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -2063,7 +2207,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2101,10 +2245,14 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -2137,7 +2285,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
@@ -2199,7 +2347,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -2221,10 +2373,14 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -2253,7 +2409,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -2299,10 +2455,14 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -2340,7 +2500,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
@@ -2381,10 +2545,14 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -2434,7 +2602,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -2466,7 +2634,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -2500,7 +2672,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -2548,7 +2720,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -2581,7 +2757,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -2603,10 +2779,14 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -2636,7 +2816,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -2681,10 +2861,14 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -2718,7 +2902,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
@@ -2763,10 +2947,14 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -2797,7 +2985,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
@@ -2837,10 +3029,14 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -2874,7 +3070,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -2919,10 +3115,14 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2973,7 +3173,7 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -3001,10 +3201,14 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -3031,7 +3235,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
@@ -3079,10 +3287,14 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -3123,7 +3335,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
@@ -3145,10 +3361,14 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -3197,7 +3417,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -3233,10 +3453,14 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3264,7 +3488,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr"/>
@@ -3291,10 +3515,14 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3334,7 +3562,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -3376,7 +3604,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -3408,7 +3640,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB39" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
@@ -3450,7 +3686,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3499,7 +3739,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
@@ -3521,10 +3765,14 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3558,7 +3806,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr"/>
@@ -3599,10 +3847,14 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3635,7 +3887,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
@@ -3657,10 +3913,14 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3693,7 +3953,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -3731,10 +3991,14 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -3777,7 +4041,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
@@ -3808,7 +4076,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3834,7 +4106,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
@@ -3890,7 +4166,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3919,7 +4199,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr"/>
@@ -3957,10 +4237,14 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3989,7 +4273,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -4031,10 +4315,14 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -4079,7 +4367,7 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
@@ -4113,10 +4401,14 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -4149,7 +4441,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -4183,10 +4475,14 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -4221,7 +4517,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
@@ -4241,10 +4541,14 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -4287,7 +4591,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -4327,10 +4631,14 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -4361,7 +4669,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
@@ -4385,10 +4697,14 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -4422,7 +4738,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
@@ -4443,10 +4763,14 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -4505,7 +4829,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr"/>
@@ -4525,10 +4849,14 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -4559,7 +4887,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
@@ -4579,10 +4911,14 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -4621,7 +4957,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -4709,7 +5045,7 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
@@ -4735,10 +5071,14 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -4797,7 +5137,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr"/>
@@ -4817,10 +5157,14 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -4879,7 +5223,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr"/>
@@ -4902,7 +5246,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -4936,7 +5284,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -4984,7 +5332,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -5043,7 +5395,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr"/>
@@ -5063,10 +5415,14 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -5105,7 +5461,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -5145,10 +5501,14 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5191,7 +5551,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -5227,10 +5587,14 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -5269,7 +5633,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -5305,10 +5669,14 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -5338,7 +5706,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr">
         <is>
@@ -5375,10 +5747,14 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -5411,7 +5787,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -5449,10 +5825,14 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -5480,7 +5860,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr"/>
@@ -5535,10 +5915,14 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -5572,7 +5956,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr"/>
@@ -5605,10 +5989,14 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -5656,7 +6044,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr"/>
@@ -5685,10 +6073,14 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -5731,7 +6123,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC70" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
@@ -5771,10 +6167,14 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -5805,7 +6205,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -5841,10 +6241,14 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -5884,7 +6288,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr"/>
@@ -5923,10 +6327,14 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -5962,7 +6370,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr"/>
@@ -6005,10 +6413,14 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -6036,7 +6448,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
@@ -6062,7 +6478,11 @@
           <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -6088,7 +6508,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AA75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr">
         <is>
@@ -6117,10 +6541,14 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -6166,7 +6594,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr"/>
@@ -6199,10 +6627,14 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -6226,7 +6658,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="Z77" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
@@ -6281,10 +6717,14 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -6315,7 +6755,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -6363,10 +6803,14 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -6423,7 +6867,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr"/>
@@ -6445,10 +6889,14 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -6492,7 +6940,11 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD80" t="inlineStr">
         <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
@@ -6527,10 +6979,14 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -6575,7 +7031,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr"/>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -633,12 +633,12 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -676,21 +676,37 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
@@ -707,12 +723,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -753,11 +769,23 @@
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -767,11 +795,7 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -781,12 +805,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -822,23 +846,35 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
@@ -855,12 +891,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -896,26 +932,34 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -929,12 +973,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -970,26 +1014,34 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1046,27 +1098,35 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1143,12 +1203,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1192,17 +1252,25 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
@@ -1250,25 +1318,33 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -1283,12 +1359,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1326,15 +1402,27 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
@@ -1342,11 +1430,7 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1357,12 +1441,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1406,7 +1490,11 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AF12" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
@@ -1427,12 +1515,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1478,11 +1566,27 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
@@ -1501,12 +1605,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1544,28 +1648,36 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1575,12 +1687,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1618,22 +1730,38 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
@@ -1678,11 +1806,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
@@ -1691,7 +1815,11 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
@@ -1707,12 +1835,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1748,24 +1876,40 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
@@ -1781,12 +1925,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1825,21 +1969,25 @@
         </is>
       </c>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
+      <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
     </row>
@@ -1851,12 +1999,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1891,21 +2039,41 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
@@ -1921,12 +2089,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1956,35 +2124,39 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1995,19 +2167,15 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
@@ -2020,7 +2188,11 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2030,32 +2202,36 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
@@ -2069,12 +2245,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2104,31 +2280,35 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
@@ -2162,22 +2342,22 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
@@ -2193,12 +2373,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2213,11 +2393,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -2233,21 +2409,37 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
@@ -2263,12 +2455,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2283,11 +2475,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -2298,26 +2486,50 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
@@ -2333,12 +2545,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2362,31 +2574,47 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
@@ -2403,12 +2631,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2423,11 +2651,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2438,25 +2662,45 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
@@ -2473,12 +2717,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2494,11 +2738,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2506,20 +2746,20 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
@@ -2539,12 +2779,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2560,11 +2800,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2572,27 +2808,43 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
           <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
@@ -2609,12 +2861,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2630,11 +2882,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2644,26 +2892,46 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
@@ -2679,15 +2947,19 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
@@ -2700,11 +2972,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2714,7 +2982,7 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -2722,28 +2990,36 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2753,12 +3029,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2774,11 +3050,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2788,7 +3060,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -2798,16 +3070,36 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
@@ -2823,12 +3115,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2844,11 +3136,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2856,28 +3144,48 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
@@ -2893,12 +3201,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2924,30 +3232,46 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
@@ -2963,12 +3287,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2992,36 +3316,40 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
+      <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
     </row>
@@ -3033,12 +3361,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3064,29 +3392,45 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
       <c r="Z36" t="inlineStr">
         <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
           <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
@@ -3109,12 +3453,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -3133,24 +3477,20 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
@@ -3175,12 +3515,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3198,32 +3538,48 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
@@ -3245,12 +3601,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3259,7 +3615,11 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3268,42 +3628,46 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3319,12 +3683,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3333,7 +3697,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -3342,37 +3710,41 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
@@ -3393,12 +3765,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3418,30 +3790,42 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
@@ -3488,22 +3872,26 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
@@ -3539,7 +3927,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -3550,39 +3942,39 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -3599,12 +3991,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3614,7 +4006,11 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3622,42 +4018,46 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3673,12 +4073,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -3703,29 +4103,45 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
@@ -3747,12 +4163,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3770,36 +4186,40 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
     </row>
@@ -3817,12 +4237,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3832,7 +4252,11 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3840,42 +4264,42 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3891,12 +4315,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3916,34 +4340,46 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
       <c r="Y48" t="inlineStr">
         <is>
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
@@ -3965,12 +4401,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3980,7 +4416,11 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3990,32 +4430,32 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
@@ -4031,20 +4471,16 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -4067,21 +4503,25 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
@@ -4097,20 +4537,16 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -4134,16 +4570,20 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -4151,13 +4591,25 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
@@ -4179,12 +4631,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -4206,28 +4658,28 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ0AVM (val)</t>
+        </is>
+      </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
@@ -4241,20 +4693,16 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -4276,21 +4724,25 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
@@ -4307,20 +4759,16 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -4344,30 +4792,46 @@
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
@@ -4385,12 +4849,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -4418,18 +4882,18 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
@@ -4443,20 +4907,16 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -4480,16 +4940,16 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
         <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -4497,13 +4957,25 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
@@ -4517,7 +4989,11 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -4545,30 +5021,38 @@
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
@@ -4587,12 +5071,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4616,34 +5100,46 @@
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
@@ -4661,12 +5157,12 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4698,26 +5194,38 @@
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
@@ -4735,12 +5243,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -4762,36 +5270,48 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
@@ -4809,12 +5329,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -4843,29 +5363,41 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
@@ -4883,12 +5415,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -4910,36 +5442,48 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AA62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
@@ -4957,12 +5501,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4984,36 +5528,48 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
@@ -5031,12 +5587,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -5050,7 +5606,11 @@
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -5058,27 +5618,27 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr"/>
@@ -5101,16 +5661,20 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -5134,33 +5698,37 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
@@ -5179,12 +5747,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -5198,7 +5766,11 @@
           <t>Heimahjúkrun HJÚ711G (hofudborgarsvaedi)</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -5206,31 +5778,31 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr">
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
           <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
@@ -5253,12 +5825,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -5280,36 +5852,48 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr">
         <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
@@ -5323,16 +5907,20 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -5354,38 +5942,38 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr"/>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
@@ -5401,12 +5989,12 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -5426,7 +6014,7 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -5434,25 +6022,37 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
@@ -5473,12 +6073,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -5500,34 +6100,50 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
@@ -5541,18 +6157,22 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -5572,30 +6192,34 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ0AVM (val)</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
@@ -5603,11 +6227,7 @@
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AL71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5648,7 +6268,7 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -5656,25 +6276,37 @@
           <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr">
+      <c r="Y72" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE72" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
@@ -5727,28 +6359,36 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Líknarmeðferð HJÚ0AXM (val)</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
           <t>Líknarmeðferð HJÚ0AXM (val)</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD73" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AE73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
@@ -5763,18 +6403,22 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -5801,7 +6445,7 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -5809,11 +6453,7 @@
           <t>Barnahjúkrun HJÚ715G (barna)</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
@@ -5835,12 +6475,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -5863,23 +6503,23 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
-      <c r="AD75" t="inlineStr">
-        <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
-        </is>
-      </c>
+      <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
@@ -5901,12 +6541,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -5931,29 +6571,41 @@
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr"/>
@@ -5975,12 +6627,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -6000,34 +6652,50 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr"/>
@@ -6049,12 +6717,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -6074,34 +6742,46 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD78" t="inlineStr"/>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr"/>
@@ -6123,12 +6803,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -6153,21 +6833,33 @@
           <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>Kynheilbrigði HJÚ823M (val)</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD79" t="inlineStr"/>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
       <c r="AE79" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -6175,7 +6867,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr"/>
@@ -6197,12 +6889,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -6233,23 +6925,39 @@
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>Bráðahjúkrun HJÚ824G (brada)</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Bráðahjúkrun HJÚ824G (brada)</t>
-        </is>
-      </c>
-      <c r="AD80" t="inlineStr"/>
+          <t>Barnahjúkrun HJÚ715G (barna)</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
+        </is>
+      </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Konur heilsa og samfélag HJÚ827M (val)</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Kynheilbrigði HJÚ823M (val)</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr"/>
@@ -6271,12 +6979,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -6298,16 +7006,24 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
+        </is>
+      </c>
       <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr">
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr">
         <is>
           <t>Bráðahjúkrun HJÚ824G (brada)</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr">
         <is>
           <t>Barnahjúkrun HJÚ715G (barna)</t>
@@ -6315,16 +7031,12 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>Barnahjúkrun HJÚ715G (barna)</t>
+          <t>Barnahjúkrun HJÚ715G (barna)Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr">
-        <is>
-          <t>Andvari: Gjörgæsluhjúkrun HJÚ824M (val)</t>
-        </is>
-      </c>
+      <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
       <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>

--- a/stundatafla.xlsx
+++ b/stundatafla.xlsx
@@ -633,12 +633,12 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -723,12 +723,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -805,12 +805,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -891,12 +891,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -973,12 +973,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1055,12 +1055,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1137,12 +1137,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1203,12 +1203,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1359,12 +1359,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1441,12 +1441,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1515,12 +1515,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1605,12 +1605,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1687,12 +1687,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1835,12 +1835,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1925,12 +1925,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1999,12 +1999,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2089,12 +2089,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2167,12 +2167,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2245,12 +2245,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2373,12 +2373,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2455,12 +2455,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2545,12 +2545,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2631,12 +2631,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2717,12 +2717,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2779,12 +2779,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2861,12 +2861,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2947,12 +2947,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3029,12 +3029,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3115,12 +3115,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -3201,12 +3201,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -3287,12 +3287,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3361,12 +3361,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3453,12 +3453,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -3515,12 +3515,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3683,12 +3683,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3765,12 +3765,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3847,12 +3847,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3913,12 +3913,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3991,12 +3991,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4163,12 +4163,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -4237,12 +4237,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -4315,12 +4315,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -4401,12 +4401,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -4475,12 +4475,12 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -4541,12 +4541,12 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -4697,12 +4697,12 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -4763,12 +4763,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -4849,12 +4849,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -4911,12 +4911,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -5071,12 +5071,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -5157,12 +5157,12 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -5243,12 +5243,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -5329,12 +5329,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -5415,12 +5415,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Heila-, tauga- og bæklunarskurðdeild, B6 Fossvogur)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -5501,12 +5501,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Kvenlækningadeild 21A, Hringbraut)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -5587,12 +5587,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðaöldrunarlækningadeild B4 Fossvogi)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -5669,12 +5669,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -5747,12 +5747,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -5825,12 +5825,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Hjartadeild  , 14 E/G Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -5915,12 +5915,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -5989,12 +5989,12 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Lungnadeild , A6 Fossvogur)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -6073,12 +6073,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Bæklunarskurðdeild , B5 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (HNE-, lýta- og æðaskurðdeild, A4 Fossvogur)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -6167,12 +6167,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Líknardeildin , Líknard. Kópavogi)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -6241,12 +6241,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Taugalækningadeild , B2 Fossvogur)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -6327,12 +6327,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Blóð og krabbameinsdeild, 11EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -6413,12 +6413,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Hjarta- og lungnaskurðdeild, og legudeild augndeildar, 12G Hringbraut)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -6475,12 +6475,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -6627,12 +6627,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Endurhæfingardeild, Grensás R2-3)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -6717,12 +6717,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Þvagfæra- og almenn skurðlækningadeild, 13EG Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -6803,12 +6803,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Smitsjúkdómadeild , A7 Fossvogur)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Bráðalyflækningadeild , A2 Fossvogur)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -6889,12 +6889,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -6979,12 +6979,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Hjúkrunarstjórnun HJÚ714G (Meltingar- og nýrnadeild , 12E Hringbraut)</t>
+          <t>Hjúkrunarstjórnun HJÚ714G (Gigtar og almenn lyflækningadeild , B7 Fossvogur)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
